--- a/output/VxLAN-Book3.xlsx
+++ b/output/VxLAN-Book3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive-Backup\Documents\GitHub\gns3-project2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2ECA45-7034-4968-9609-276263BD95FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4A4B6-7C7B-46C9-B599-A28D90C1AD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{118DC7AB-2561-40D8-A41B-0BD564EB3F87}"/>
   </bookViews>
   <sheets>
     <sheet name="vxlan -Leaf_Spine" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -67,30 +67,30 @@
     <definedName name="AnchorMWDCwlc4">#REF!</definedName>
     <definedName name="AnchorMWDCwlc4TS">#REF!</definedName>
     <definedName name="avg_flr_sqft">#REF!</definedName>
-    <definedName name="ff">[2]Lookups!$A$2:$A$6</definedName>
+    <definedName name="ff">[1]Lookups!$A$2:$A$6</definedName>
     <definedName name="FinalAPCount">#REF!</definedName>
-    <definedName name="floors">'[3]RNI Instructions'!$F$25</definedName>
+    <definedName name="floors">'[2]RNI Instructions'!$F$25</definedName>
     <definedName name="foreignwlc1">#REF!</definedName>
     <definedName name="foreignwlc2">#REF!</definedName>
-    <definedName name="gg">[2]Lookups!$A$2:$A$6</definedName>
-    <definedName name="hf">[2]Lookups!$F$2:$F$4</definedName>
-    <definedName name="HubSpoke">[4]Lookups!#REF!</definedName>
-    <definedName name="jk">[2]Lookups!$F$2:$F$4</definedName>
-    <definedName name="kl">[2]Lookups!$E$2:$E$6</definedName>
+    <definedName name="gg">[1]Lookups!$A$2:$A$6</definedName>
+    <definedName name="hf">[1]Lookups!$F$2:$F$4</definedName>
+    <definedName name="HubSpoke">[3]Lookups!#REF!</definedName>
+    <definedName name="jk">[1]Lookups!$F$2:$F$4</definedName>
+    <definedName name="kl">[1]Lookups!$E$2:$E$6</definedName>
     <definedName name="list">#REF!</definedName>
-    <definedName name="list2">'[5]3. Wireless RF Survey'!$AJ$19:$AJ$20</definedName>
-    <definedName name="Mcast">[4]Lookups!$E$2:$E$6</definedName>
-    <definedName name="mm">[2]Lookups!$B$2:$B$3</definedName>
-    <definedName name="nn">[2]Lookups!$D$2:$D$4</definedName>
+    <definedName name="list2">'[4]3. Wireless RF Survey'!$AJ$19:$AJ$20</definedName>
+    <definedName name="Mcast">[3]Lookups!$E$2:$E$6</definedName>
+    <definedName name="mm">[1]Lookups!$B$2:$B$3</definedName>
+    <definedName name="nn">[1]Lookups!$D$2:$D$4</definedName>
     <definedName name="no_APs">#REF!</definedName>
     <definedName name="no_flrs">#REF!</definedName>
     <definedName name="NPMS_Project">#REF!</definedName>
-    <definedName name="pp">[2]Lookups!$C$2:$C$22</definedName>
-    <definedName name="pq">[2]Lookups!$C$2:$C$22</definedName>
+    <definedName name="pp">[1]Lookups!$C$2:$C$22</definedName>
+    <definedName name="pq">[1]Lookups!$C$2:$C$22</definedName>
     <definedName name="ProposedAPCount">#REF!</definedName>
-    <definedName name="Region">[4]Lookups!$A$2:$A$6</definedName>
-    <definedName name="RTExport">[4]Lookups!#REF!</definedName>
-    <definedName name="RTImport">[4]Lookups!#REF!</definedName>
+    <definedName name="Region">[3]Lookups!$A$2:$A$6</definedName>
+    <definedName name="RTExport">[3]Lookups!#REF!</definedName>
+    <definedName name="RTImport">[3]Lookups!#REF!</definedName>
     <definedName name="s">#REF!</definedName>
     <definedName name="SiteAddress">#REF!</definedName>
     <definedName name="SiteContactEmail">#REF!</definedName>
@@ -166,24 +166,24 @@
     <definedName name="SiteLBCode">#REF!</definedName>
     <definedName name="SiteName">#REF!</definedName>
     <definedName name="SiteREMS">#REF!</definedName>
-    <definedName name="SiteType">[4]Lookups!$B$2:$B$3</definedName>
+    <definedName name="SiteType">[3]Lookups!$B$2:$B$3</definedName>
     <definedName name="Temp">#REF!</definedName>
-    <definedName name="Template">[6]BOM!#REF!</definedName>
-    <definedName name="Template_10">[7]BOM!#REF!</definedName>
-    <definedName name="Template_4">[7]BOM!#REF!</definedName>
-    <definedName name="Template_9">[7]BOM!#REF!</definedName>
-    <definedName name="Template2">[8]BOM!#REF!</definedName>
+    <definedName name="Template">[5]BOM!#REF!</definedName>
+    <definedName name="Template_10">[6]BOM!#REF!</definedName>
+    <definedName name="Template_4">[6]BOM!#REF!</definedName>
+    <definedName name="Template_9">[6]BOM!#REF!</definedName>
+    <definedName name="Template2">[7]BOM!#REF!</definedName>
     <definedName name="Template2_4">NA()</definedName>
     <definedName name="Template2_9">NA()</definedName>
-    <definedName name="TestLine">[9]RegexpTester!$A$2</definedName>
-    <definedName name="VPNName">[4]Lookups!$C$2:$C$22</definedName>
-    <definedName name="VPNRouting">[4]Lookups!#REF!</definedName>
-    <definedName name="VPNType">[4]Lookups!$D$2:$D$4</definedName>
+    <definedName name="TestLine">[8]RegexpTester!$A$2</definedName>
+    <definedName name="VPNName">[3]Lookups!$C$2:$C$22</definedName>
+    <definedName name="VPNRouting">[3]Lookups!#REF!</definedName>
+    <definedName name="VPNType">[3]Lookups!$D$2:$D$4</definedName>
     <definedName name="wrn.PT_PT._.Detail." hidden="1">{"View1",#N/A,FALSE,"Cititrack"}</definedName>
     <definedName name="wrn1.PT_PT._.Detail." hidden="1">{"View1",#N/A,FALSE,"Cititrack"}</definedName>
     <definedName name="y" hidden="1">{"View1",#N/A,FALSE,"Cititrack"}</definedName>
-    <definedName name="YesNo">[4]Lookups!$F$2:$F$4</definedName>
-    <definedName name="zz">[2]Lookups!$B$2:$B$3</definedName>
+    <definedName name="YesNo">[3]Lookups!$F$2:$F$4</definedName>
+    <definedName name="zz">[1]Lookups!$B$2:$B$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1711,23 +1711,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>1621369</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>45708</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1545169</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>96540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{829B5AA6-E312-478D-B5EA-9465C13EDD96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF31CB56-A57D-47DE-AD76-B703F7974E46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1743,56 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4826000" y="368300"/>
+          <a:off x="6934200" y="381000"/>
+          <a:ext cx="15184969" cy="9240540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>554569</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>58408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6B9AEA-164E-4DDD-9435-157BB8ABDB35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="15184969" cy="9011908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1757,33 +1806,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Verification Loader"/>
-      <sheetName val="Pre-Verification"/>
-      <sheetName val="Post-Verification"/>
-      <sheetName val="Pre_Post_Side-by-Side"/>
-      <sheetName val="WriteLog"/>
-      <sheetName val="Notes"/>
-      <sheetName val="More Tools"/>
-      <sheetName val="Styles"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1952,7 +1974,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2035,7 +2057,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2210,7 +2232,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2256,7 +2278,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2317,7 +2339,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2380,7 +2402,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2435,7 +2457,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2765,7 +2787,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AB13" sqref="AB13"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -12601,4 +12623,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37071D5-0BAA-4AC3-A160-5CC7FDF53F1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>